--- a/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-VW-B2-CSS30Fast/pyControllerList/PV Controller.xlsx
+++ b/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-VW-B2-CSS30Fast/pyControllerList/PV Controller.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mblonsky/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A3C109-04E3-3441-A1B8-5D99FAB16E52}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="4880" windowWidth="28080" windowHeight="12640"/>
+    <workbookView xWindow="4240" yWindow="4880" windowWidth="28080" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
     <sheet name="Settings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2089,7 +2085,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2432,26 +2428,25 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="27">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2542,24 +2537,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2921,6 +2898,16 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2935,33 +2922,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:X648" insertRowShift="1" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:X648"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:X648" insertRowShift="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A2:X648" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
-    <tableColumn id="1" name="Controlled PV" dataDxfId="25"/>
-    <tableColumn id="2" name="Qcontrol" dataDxfId="24"/>
-    <tableColumn id="3" name="Pcontrol" dataDxfId="23"/>
-    <tableColumn id="4" name="pf" dataDxfId="22"/>
-    <tableColumn id="5" name="pfMin" dataDxfId="21"/>
-    <tableColumn id="6" name="pfMax" dataDxfId="20"/>
-    <tableColumn id="7" name="Pmin" dataDxfId="19"/>
-    <tableColumn id="8" name="Pmax" dataDxfId="18"/>
-    <tableColumn id="9" name="uMin" dataDxfId="17"/>
-    <tableColumn id="10" name="uDbMin" dataDxfId="16"/>
-    <tableColumn id="11" name="uDbMax" dataDxfId="15"/>
-    <tableColumn id="12" name="uMax" dataDxfId="14"/>
-    <tableColumn id="13" name="QlimPU" dataDxfId="13"/>
-    <tableColumn id="14" name="PFlim" dataDxfId="12"/>
-    <tableColumn id="23" name="Enable PF limit" dataDxfId="11"/>
-    <tableColumn id="21" name="uMinC" dataDxfId="10"/>
-    <tableColumn id="22" name="uMaxC" dataDxfId="9"/>
-    <tableColumn id="15" name="PminVW" dataDxfId="8"/>
-    <tableColumn id="16" name="VWtype" dataDxfId="7"/>
-    <tableColumn id="17" name="%PCutin" dataDxfId="6"/>
-    <tableColumn id="18" name="%PCutout" dataDxfId="5"/>
-    <tableColumn id="19" name="Efficiency" dataDxfId="4"/>
-    <tableColumn id="24" name="Priority" dataDxfId="3"/>
-    <tableColumn id="20" name="pDampCoef" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Controlled PV" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qcontrol" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pcontrol" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="pf" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="pfMin" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pfMax" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Pmin" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pmax" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="uMin" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="uDbMin" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="uDbMax" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="uMax" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="QlimPU" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="PFlim" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Enable PF limit" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="uMinC" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="uMaxC" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="PminVW" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="VWtype" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="%PCutin" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="%PCutout" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Efficiency" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="pDampCoef" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3229,11 +3216,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="B419" sqref="B419"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40176,7 +40163,7 @@
       <c r="X480" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y480" s="4">
+      <c r="Y480" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -40253,7 +40240,7 @@
       <c r="X481" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y481" s="4">
+      <c r="Y481" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -40330,7 +40317,7 @@
       <c r="X482" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y482" s="4">
+      <c r="Y482" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -40407,7 +40394,7 @@
       <c r="X483" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y483" s="4">
+      <c r="Y483" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -40484,7 +40471,7 @@
       <c r="X484" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y484" s="4">
+      <c r="Y484" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -40561,7 +40548,7 @@
       <c r="X485" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y485" s="4">
+      <c r="Y485" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -40638,7 +40625,7 @@
       <c r="X486" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y486" s="4">
+      <c r="Y486" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -40715,7 +40702,7 @@
       <c r="X487" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y487" s="4">
+      <c r="Y487" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -40792,7 +40779,7 @@
       <c r="X488" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y488" s="4">
+      <c r="Y488" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -40869,7 +40856,7 @@
       <c r="X489" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y489" s="4">
+      <c r="Y489" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -40946,7 +40933,7 @@
       <c r="X490" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y490" s="4">
+      <c r="Y490" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -41023,7 +41010,7 @@
       <c r="X491" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y491" s="4">
+      <c r="Y491" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -41100,7 +41087,7 @@
       <c r="X492" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y492" s="4">
+      <c r="Y492" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -41177,7 +41164,7 @@
       <c r="X493" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y493" s="4">
+      <c r="Y493" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -41254,7 +41241,7 @@
       <c r="X494" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y494" s="4">
+      <c r="Y494" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -41331,7 +41318,7 @@
       <c r="X495" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y495" s="4">
+      <c r="Y495" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -41408,7 +41395,7 @@
       <c r="X496" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y496" s="4">
+      <c r="Y496" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -41485,7 +41472,7 @@
       <c r="X497" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y497" s="4">
+      <c r="Y497" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -41562,7 +41549,7 @@
       <c r="X498" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y498" s="4">
+      <c r="Y498" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -41639,7 +41626,7 @@
       <c r="X499" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y499" s="4">
+      <c r="Y499" s="25">
         <v>0.7</v>
       </c>
     </row>
@@ -41716,7 +41703,7 @@
       <c r="X500" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y500" s="4">
+      <c r="Y500" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -44334,7 +44321,7 @@
       <c r="X534" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y534" s="25">
+      <c r="Y534" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -44488,7 +44475,7 @@
       <c r="X536" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y536" s="25">
+      <c r="Y536" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -44642,7 +44629,7 @@
       <c r="X538" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y538" s="25">
+      <c r="Y538" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -44796,7 +44783,7 @@
       <c r="X540" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y540" s="25">
+      <c r="Y540" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -44950,7 +44937,7 @@
       <c r="X542" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y542" s="25">
+      <c r="Y542" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45104,7 +45091,7 @@
       <c r="X544" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y544" s="25">
+      <c r="Y544" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45258,7 +45245,7 @@
       <c r="X546" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y546" s="25">
+      <c r="Y546" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45412,7 +45399,7 @@
       <c r="X548" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y548" s="25">
+      <c r="Y548" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45566,7 +45553,7 @@
       <c r="X550" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y550" s="25">
+      <c r="Y550" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45720,7 +45707,7 @@
       <c r="X552" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y552" s="25">
+      <c r="Y552" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -45874,7 +45861,7 @@
       <c r="X554" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y554" s="25">
+      <c r="Y554" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46028,7 +46015,7 @@
       <c r="X556" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y556" s="25">
+      <c r="Y556" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46182,7 +46169,7 @@
       <c r="X558" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y558" s="25">
+      <c r="Y558" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46336,7 +46323,7 @@
       <c r="X560" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y560" s="25">
+      <c r="Y560" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46490,7 +46477,7 @@
       <c r="X562" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y562" s="25">
+      <c r="Y562" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46644,7 +46631,7 @@
       <c r="X564" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y564" s="25">
+      <c r="Y564" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46798,7 +46785,7 @@
       <c r="X566" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y566" s="25">
+      <c r="Y566" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -46952,7 +46939,7 @@
       <c r="X568" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y568" s="25">
+      <c r="Y568" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47106,7 +47093,7 @@
       <c r="X570" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y570" s="25">
+      <c r="Y570" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47260,7 +47247,7 @@
       <c r="X572" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y572" s="25">
+      <c r="Y572" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47414,7 +47401,7 @@
       <c r="X574" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y574" s="25">
+      <c r="Y574" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47568,7 +47555,7 @@
       <c r="X576" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y576" s="25">
+      <c r="Y576" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47722,7 +47709,7 @@
       <c r="X578" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y578" s="25">
+      <c r="Y578" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -47876,7 +47863,7 @@
       <c r="X580" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y580" s="25">
+      <c r="Y580" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48030,7 +48017,7 @@
       <c r="X582" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y582" s="25">
+      <c r="Y582" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48184,7 +48171,7 @@
       <c r="X584" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y584" s="25">
+      <c r="Y584" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48338,7 +48325,7 @@
       <c r="X586" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y586" s="25">
+      <c r="Y586" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48492,7 +48479,7 @@
       <c r="X588" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y588" s="25">
+      <c r="Y588" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48646,7 +48633,7 @@
       <c r="X590" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y590" s="25">
+      <c r="Y590" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48800,7 +48787,7 @@
       <c r="X592" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y592" s="25">
+      <c r="Y592" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -48954,7 +48941,7 @@
       <c r="X594" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y594" s="25">
+      <c r="Y594" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49108,7 +49095,7 @@
       <c r="X596" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y596" s="25">
+      <c r="Y596" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49262,7 +49249,7 @@
       <c r="X598" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y598" s="25">
+      <c r="Y598" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49416,7 +49403,7 @@
       <c r="X600" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y600" s="25">
+      <c r="Y600" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49570,7 +49557,7 @@
       <c r="X602" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y602" s="25">
+      <c r="Y602" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49724,7 +49711,7 @@
       <c r="X604" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y604" s="25">
+      <c r="Y604" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -49878,7 +49865,7 @@
       <c r="X606" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y606" s="25">
+      <c r="Y606" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50032,7 +50019,7 @@
       <c r="X608" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y608" s="25">
+      <c r="Y608" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50186,7 +50173,7 @@
       <c r="X610" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y610" s="25">
+      <c r="Y610" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50340,7 +50327,7 @@
       <c r="X612" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y612" s="25">
+      <c r="Y612" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50494,7 +50481,7 @@
       <c r="X614" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y614" s="25">
+      <c r="Y614" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50648,7 +50635,7 @@
       <c r="X616" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y616" s="25">
+      <c r="Y616" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50802,7 +50789,7 @@
       <c r="X618" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y618" s="25">
+      <c r="Y618" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -50956,7 +50943,7 @@
       <c r="X620" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y620" s="25">
+      <c r="Y620" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51110,7 +51097,7 @@
       <c r="X622" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y622" s="25">
+      <c r="Y622" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51264,7 +51251,7 @@
       <c r="X624" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y624" s="25">
+      <c r="Y624" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51418,7 +51405,7 @@
       <c r="X626" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y626" s="25">
+      <c r="Y626" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51572,7 +51559,7 @@
       <c r="X628" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y628" s="25">
+      <c r="Y628" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51726,7 +51713,7 @@
       <c r="X630" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y630" s="25">
+      <c r="Y630" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -51880,7 +51867,7 @@
       <c r="X632" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y632" s="25">
+      <c r="Y632" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52034,7 +52021,7 @@
       <c r="X634" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y634" s="25">
+      <c r="Y634" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52188,7 +52175,7 @@
       <c r="X636" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y636" s="25">
+      <c r="Y636" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52342,7 +52329,7 @@
       <c r="X638" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y638" s="25">
+      <c r="Y638" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52496,7 +52483,7 @@
       <c r="X640" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y640" s="25">
+      <c r="Y640" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52650,7 +52637,7 @@
       <c r="X642" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y642" s="25">
+      <c r="Y642" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52804,7 +52791,7 @@
       <c r="X644" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y644" s="25">
+      <c r="Y644" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -52958,7 +52945,7 @@
       <c r="X646" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y646" s="25">
+      <c r="Y646" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -53112,7 +53099,7 @@
       <c r="X648" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y648" s="25">
+      <c r="Y648" s="26">
         <v>0.7</v>
       </c>
     </row>
@@ -53125,7 +53112,7 @@
     <mergeCell ref="P1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A648">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -53135,31 +53122,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Settings!$D$3:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Settings!$A$3:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Settings!$B$3:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Settings!$C$3:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Settings!$E$3:$E$4</xm:f>
           </x14:formula1>
@@ -53172,7 +53159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
